--- a/ComputersFactory/Excel-Reports/Computers.xlsx
+++ b/ComputersFactory/Excel-Reports/Computers.xlsx
@@ -7,11 +7,11 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet sheetId="1" r:id="rId1" name="Sheet1"/>
+    <sheet sheetId="2" r:id="rId2" name="Sheet2"/>
+    <sheet sheetId="3" r:id="rId3" name="Sheet3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
@@ -371,16 +371,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
+  <dimension ref="A1:F46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row spans="1:6" outlineLevel="0" r="1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -398,6 +398,1446 @@
       </c>
       <c r="F1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2">
+      <c r="A2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E2" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F2" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="3">
+      <c r="A3" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C3" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D3" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E3" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F3" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="4">
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="5">
+      <c r="A5" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="6">
+      <c r="A6" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D6" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E6" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="7">
+      <c r="A7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="8">
+      <c r="A8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E8" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F8" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="9">
+      <c r="A9" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B9" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C9" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D9" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E9" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F9" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="10">
+      <c r="A10" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D10" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E10" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F10" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="11">
+      <c r="A11" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B11" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C11" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D11" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E11" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F11" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="12">
+      <c r="A12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E12" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F12" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="13">
+      <c r="A13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E13" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F13" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="14">
+      <c r="A14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E14" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F14" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="15">
+      <c r="A15" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D15" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E15" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F15" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="16">
+      <c r="A16" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B16" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C16" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D16" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E16" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F16" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="17">
+      <c r="A17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E17" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F17" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="18">
+      <c r="A18" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B18" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C18" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D18" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E18" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F18" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="19">
+      <c r="A19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E19" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F19" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="20">
+      <c r="A20" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B20" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C20" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D20" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E20" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F20" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="21">
+      <c r="A21" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B21" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C21" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D21" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E21" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F21" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="22">
+      <c r="A22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E22" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F22" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="23">
+      <c r="A23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E23" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F23" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="24">
+      <c r="A24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E24" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F24" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="25">
+      <c r="A25" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B25" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C25" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D25" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E25" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F25" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="26">
+      <c r="A26" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B26" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C26" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D26" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E26" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F26" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="27">
+      <c r="A27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E27" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F27" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="28">
+      <c r="A28" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B28" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C28" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D28" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E28" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F28" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="29">
+      <c r="A29" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B29" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C29" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D29" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E29" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F29" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="30">
+      <c r="A30" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B30" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C30" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D30" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E30" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F30" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="31">
+      <c r="A31" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D31" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E31" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F31" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="32">
+      <c r="A32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E32" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F32" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="33">
+      <c r="A33" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B33" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C33" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D33" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E33" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F33" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="34">
+      <c r="A34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E34" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F34" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="35">
+      <c r="A35" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B35" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C35" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D35" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E35" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F35" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="36">
+      <c r="A36" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B36" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C36" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D36" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E36" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F36" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="37">
+      <c r="A37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E37" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F37" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="38">
+      <c r="A38" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B38" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C38" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D38" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E38" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F38" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="39">
+      <c r="A39" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B39" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C39" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D39" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E39" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F39" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="40">
+      <c r="A40" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B40" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C40" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D40" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E40" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F40" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="41">
+      <c r="A41" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B41" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C41" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D41" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E41" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F41" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="42">
+      <c r="A42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E42" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="F42" s="0" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="43">
+      <c r="A43" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B43" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C43" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D43" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E43" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="F43" s="0" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="44">
+      <c r="A44" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B44" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="C44" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D44" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="E44" s="0" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="F44" s="0" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="45">
+      <c r="A45" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B45" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="C45" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="D45" s="0" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E45" s="0" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F45" s="0" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="46">
+      <c r="A46" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B46" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="C46" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D46" s="0" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="E46" s="0" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="F46" s="0" t="inlineStr">
+        <is>
+          <t>500</t>
+        </is>
       </c>
     </row>
   </sheetData>
